--- a/Project-3-folder/Project 3 Group Ratings.xlsx
+++ b/Project-3-folder/Project 3 Group Ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayve\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013D8EB2-9147-4022-927F-8EF81F0E9704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A6F88-C3AA-4F72-889B-413C3D7C994F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="1830" windowWidth="19200" windowHeight="9970" xr2:uid="{B066B0EA-3AFF-4F56-B723-FECB9A8D51E1}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{B066B0EA-3AFF-4F56-B723-FECB9A8D51E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -525,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -542,10 +542,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.35">
@@ -553,13 +553,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -568,15 +568,15 @@
       </c>
       <c r="B6">
         <f>B2+B3+B4+B5</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f>C2+C3+C4+C5</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <f>D2+D3+D4+D5</f>
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
